--- a/猪娃家的食谱记录.xlsx
+++ b/猪娃家的食谱记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>菜谱名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,15 +164,108 @@
     <t>https://www.xiachufang.com/search/?keyword=%E8%8F%A0%E8%8F%9C%E8%B1%86%E8%85%90%E6%B1%A4&amp;cat=1001</t>
   </si>
   <si>
-    <t>豆腐汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>煎三文鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单美味，营养丰富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富含蛋白质和Omg3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸玉米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富含膳食纤维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拌菠菜胡萝卜丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单美味，营养丰富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富含铁、胡萝卜素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香甜美味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜片豆奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含蛋白质，生姜暖胃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄汁豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xiachufang.com/search/?keyword=%E8%8C%84%E6%B1%81%E8%B1%86%E8%85%90&amp;cat=1001</t>
+  </si>
+  <si>
+    <t>酸爽美味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含蛋白质，开胃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒火腿西蓝花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸淡结合，美味更健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含膳食纤维、维生素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭+黑芝麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗粮、主食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒点黑芝麻更好吃哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xiachufang.com/search/?keyword=%E8%8C%84%E6%B1%81%E8%B1%86%E8%85%90&amp;cat=1002</t>
+  </si>
+  <si>
+    <t>https://www.xiachufang.com/search/?keyword=%E8%8C%84%E6%B1%81%E8%B1%86%E8%85%90&amp;cat=1003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +287,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,10 +316,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -502,21 +602,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="104.109375" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -555,8 +655,9 @@
       <c r="F2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -576,7 +677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -596,7 +697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -616,7 +717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -636,7 +737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -656,7 +757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -676,24 +777,169 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A9) &amp; "&amp;cat=1001"</f>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%85%8E%E4%B8%89%E6%96%87%E9%B1%BC&amp;cat=1001</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1">
         <v>45806</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:C13" si="0">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A10) &amp; "&amp;cat=1001"</f>
+        <v>https://www.xiachufang.com/search/?keyword=%E8%92%B8%E7%8E%89%E7%B1%B3&amp;cat=1001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45806</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%8B%8C%E8%8F%A0%E8%8F%9C%E8%83%A1%E8%90%9D%E5%8D%9C%E4%B8%9D&amp;cat=1001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45806</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E5%A7%9C%E7%89%87%E8%B1%86%E5%A5%B6&amp;cat=1001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45806</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%85%8E%E4%B8%89%E6%96%87%E9%B1%BC&amp;cat=1001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45806</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45806</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45806</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45806</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/猪娃家的食谱记录.xlsx
+++ b/猪娃家的食谱记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>菜谱名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,12 +253,6 @@
   <si>
     <t>碳水</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xiachufang.com/search/?keyword=%E8%8C%84%E6%B1%81%E8%B1%86%E8%85%90&amp;cat=1002</t>
-  </si>
-  <si>
-    <t>https://www.xiachufang.com/search/?keyword=%E8%8C%84%E6%B1%81%E8%B1%86%E8%85%90&amp;cat=1003</t>
   </si>
 </sst>
 </file>
@@ -605,7 +599,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -806,7 +800,7 @@
         <v>59</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C13" si="0">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A10) &amp; "&amp;cat=1001"</f>
+        <f t="shared" ref="C10:C16" si="0">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A10) &amp; "&amp;cat=1001"</f>
         <v>https://www.xiachufang.com/search/?keyword=%E8%92%B8%E7%8E%89%E7%B1%B3&amp;cat=1001</v>
       </c>
       <c r="D10" t="s">
@@ -909,8 +903,9 @@
       <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
-        <v>62</v>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%B8%85%E7%82%92%E7%81%AB%E8%85%BF%E8%A5%BF%E8%93%9D%E8%8A%B1&amp;cat=1001</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -929,8 +924,9 @@
       <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
-        <v>63</v>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%B1%B3%E9%A5%AD%2B%E9%BB%91%E8%8A%9D%E9%BA%BB&amp;cat=1001</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>

--- a/猪娃家的食谱记录.xlsx
+++ b/猪娃家的食谱记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>菜谱名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,24 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清炒西葫芦</t>
-  </si>
-  <si>
-    <t>西葫芦清爽可口</t>
-  </si>
-  <si>
-    <t>富含维生素和膳食纤维</t>
-  </si>
-  <si>
-    <t>菠菜豆腐汤</t>
-  </si>
-  <si>
-    <t>豆腐嫩滑，菠菜鲜嫩</t>
-  </si>
-  <si>
-    <t>富含蛋白质和钙</t>
-  </si>
-  <si>
     <t>早中晚餐别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,12 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.xiachufang.com/search/?keyword=%E6%B8%85%E7%82%92%E8%A5%BF%E8%91%AB%E8%8A%A6&amp;cat=1001</t>
-  </si>
-  <si>
-    <t>https://www.xiachufang.com/search/?keyword=%E8%8F%A0%E8%8F%9C%E8%B1%86%E8%85%90%E6%B1%A4&amp;cat=1001</t>
-  </si>
-  <si>
     <t>煎三文鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,6 +228,37 @@
   </si>
   <si>
     <t>碳水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炒黄鳝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清淡可口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富含蛋白质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食</t>
+  </si>
+  <si>
+    <t>酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助消化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富含益生菌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -627,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -647,7 +654,7 @@
         <v>45805</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -668,7 +675,7 @@
         <v>45805</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -688,7 +695,7 @@
         <v>45805</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -708,7 +715,7 @@
         <v>45805</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -728,214 +735,237 @@
         <v>45805</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C9" si="0">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A7) &amp; "&amp;cat=1001"</f>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%88%86%E7%82%92%E9%BB%84%E9%B3%9D&amp;cat=1001</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1">
         <v>45805</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" ref="C8" si="1">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A8) &amp; "&amp;cat=1001"</f>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%A6%92%E5%A4%B4&amp;cat=1001</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1">
         <v>45805</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C9" t="str">
-        <f>"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A9) &amp; "&amp;cat=1001"</f>
-        <v>https://www.xiachufang.com/search/?keyword=%E7%85%8E%E4%B8%89%E6%96%87%E9%B1%BC&amp;cat=1001</v>
+        <f t="shared" si="0"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%85%B8%E5%A5%B6&amp;cat=1001</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1">
-        <v>45806</v>
+        <v>45805</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C16" si="0">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A10) &amp; "&amp;cat=1001"</f>
-        <v>https://www.xiachufang.com/search/?keyword=%E8%92%B8%E7%8E%89%E7%B1%B3&amp;cat=1001</v>
+        <f>"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A10) &amp; "&amp;cat=1001"</f>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%85%8E%E4%B8%89%E6%96%87%E9%B1%BC&amp;cat=1001</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1">
         <v>45806</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xiachufang.com/search/?keyword=%E6%8B%8C%E8%8F%A0%E8%8F%9C%E8%83%A1%E8%90%9D%E5%8D%9C%E4%B8%9D&amp;cat=1001</v>
+        <f t="shared" ref="C11:C17" si="2">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A11) &amp; "&amp;cat=1001"</f>
+        <v>https://www.xiachufang.com/search/?keyword=%E8%92%B8%E7%8E%89%E7%B1%B3&amp;cat=1001</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1">
         <v>45806</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xiachufang.com/search/?keyword=%E5%A7%9C%E7%89%87%E8%B1%86%E5%A5%B6&amp;cat=1001</v>
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%8B%8C%E8%8F%A0%E8%8F%9C%E8%83%A1%E8%90%9D%E5%8D%9C%E4%B8%9D&amp;cat=1001</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1">
         <v>45806</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xiachufang.com/search/?keyword=%E7%85%8E%E4%B8%89%E6%96%87%E9%B1%BC&amp;cat=1001</v>
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E5%A7%9C%E7%89%87%E8%B1%86%E5%A5%B6&amp;cat=1001</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1">
         <v>45806</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%85%8E%E4%B8%89%E6%96%87%E9%B1%BC&amp;cat=1001</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1">
         <v>45806</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xiachufang.com/search/?keyword=%E6%B8%85%E7%82%92%E7%81%AB%E8%85%BF%E8%A5%BF%E8%93%9D%E8%8A%B1&amp;cat=1001</v>
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1">
         <v>45806</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xiachufang.com/search/?keyword=%E7%B1%B3%E9%A5%AD%2B%E9%BB%91%E8%8A%9D%E9%BA%BB&amp;cat=1001</v>
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%B8%85%E7%82%92%E7%81%AB%E8%85%BF%E8%A5%BF%E8%93%9D%E8%8A%B1&amp;cat=1001</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1">
         <v>45806</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%B1%B3%E9%A5%AD%2B%E9%BB%91%E8%8A%9D%E9%BA%BB&amp;cat=1001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45806</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/猪娃家的食谱记录.xlsx
+++ b/猪娃家的食谱记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>菜谱名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,86 @@
   </si>
   <si>
     <t>富含益生菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫菜汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药炒荷兰豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色泽和营养搭配都很棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃酥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富含维生素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富含碘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香甜可口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒上海青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米山药粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富含油脂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫菜加点虾皮，简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米猪肉水饺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养丰富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水饺谁能不爱呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤面条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药牛油果泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北人家常饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好消化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -830,7 +910,7 @@
         <v>51</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:C17" si="2">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A11) &amp; "&amp;cat=1001"</f>
+        <f t="shared" ref="C11:C26" si="2">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A11) &amp; "&amp;cat=1001"</f>
         <v>https://www.xiachufang.com/search/?keyword=%E8%92%B8%E7%8E%89%E7%B1%B3&amp;cat=1001</v>
       </c>
       <c r="D11" t="s">
@@ -966,6 +1046,195 @@
       </c>
       <c r="F17" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E5%B1%B1%E8%8D%AF%E7%82%92%E8%8D%B7%E5%85%B0%E8%B1%86&amp;cat=1001</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45806</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%B4%AB%E8%8F%9C%E6%B1%A4&amp;cat=1001</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45806</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%A1%83%E9%85%A5&amp;cat=1001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45806</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%B8%85%E7%82%92%E4%B8%8A%E6%B5%B7%E9%9D%92&amp;cat=1001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45807</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E5%B0%8F%E7%B1%B3%E5%B1%B1%E8%8D%AF%E7%B2%A5&amp;cat=1001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45807</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%8E%89%E7%B1%B3%E7%8C%AA%E8%82%89%E6%B0%B4%E9%A5%BA&amp;cat=1001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45807</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%B1%A4%E9%9D%A2%E6%9D%A1&amp;cat=1001</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45807</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E5%B1%B1%E8%8D%AF%E7%89%9B%E6%B2%B9%E6%9E%9C%E6%B3%A5&amp;cat=1001</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45807</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%85%B8%E5%A5%B6&amp;cat=1001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45807</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/猪娃家的食谱记录.xlsx
+++ b/猪娃家的食谱记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="110">
   <si>
     <t>菜谱名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,108 @@
   </si>
   <si>
     <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡汤馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养丰富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲈鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕咾肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清淡美味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸奶</t>
+  </si>
+  <si>
+    <t>酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜炒香肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫菜蛋花汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭+黑芝麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浩子家</t>
+  </si>
+  <si>
+    <t>自制无糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益生菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋饼</t>
+  </si>
+  <si>
+    <t>拌胡萝卜粉丝</t>
+  </si>
+  <si>
+    <t>红豆豆浆</t>
+  </si>
+  <si>
+    <t>口蘑炒肉</t>
+  </si>
+  <si>
+    <t>清炒红薯叶</t>
+  </si>
+  <si>
+    <t>馒头</t>
+  </si>
+  <si>
+    <t>牛肉面</t>
+  </si>
+  <si>
+    <t>凉拌莴笋胡萝卜丝</t>
+  </si>
+  <si>
+    <t>排骨山药包菜汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽出品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马记永</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -910,7 +1012,7 @@
         <v>51</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:C26" si="2">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A11) &amp; "&amp;cat=1001"</f>
+        <f t="shared" ref="C11:C46" si="2">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A11) &amp; "&amp;cat=1001"</f>
         <v>https://www.xiachufang.com/search/?keyword=%E8%92%B8%E7%8E%89%E7%B1%B3&amp;cat=1001</v>
       </c>
       <c r="D11" t="s">
@@ -1235,6 +1337,426 @@
       </c>
       <c r="F26" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%B8%A1%E6%B1%A4%E9%A6%92%E5%A4%B4&amp;cat=1001</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45808</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%BE%99%E8%99%BE&amp;cat=1001</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45808</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%B2%88%E9%B1%BC&amp;cat=1001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45808</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E5%92%95%E5%92%BE%E8%82%89&amp;cat=1001</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45808</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%B8%AD%E8%88%8C&amp;cat=1001</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45808</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%85%B8%E5%A5%B6&amp;cat=1001</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45808</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%BB%84%E7%93%9C%E7%82%92%E9%A6%99%E8%82%A0&amp;cat=1001</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45808</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%B4%AB%E8%8F%9C%E8%9B%8B%E8%8A%B1%E6%B1%A4&amp;cat=1001</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45808</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%B1%B3%E9%A5%AD%2B%E9%BB%91%E8%8A%9D%E9%BA%BB&amp;cat=1001</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45808</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%B8%A1%E8%9B%8B%E9%A5%BC&amp;cat=1001</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45810</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%8B%8C%E8%83%A1%E8%90%9D%E5%8D%9C%E7%B2%89%E4%B8%9D&amp;cat=1001</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45810</v>
+      </c>
+      <c r="F37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%BA%A2%E8%B1%86%E8%B1%86%E6%B5%86&amp;cat=1001</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45810</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E5%8F%A3%E8%98%91%E7%82%92%E8%82%89&amp;cat=1001</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45810</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%B8%85%E7%82%92%E7%BA%A2%E8%96%AF%E5%8F%B6&amp;cat=1001</v>
+      </c>
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45810</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%A6%92%E5%A4%B4&amp;cat=1001</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45810</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%89%9B%E8%82%89%E9%9D%A2&amp;cat=1001</v>
+      </c>
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45810</v>
+      </c>
+      <c r="F42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E5%87%89%E6%8B%8C%E8%8E%B4%E7%AC%8B%E8%83%A1%E8%90%9D%E5%8D%9C%E4%B8%9D&amp;cat=1001</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45810</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%85%B8%E5%A5%B6&amp;cat=1001</v>
+      </c>
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45810</v>
+      </c>
+      <c r="F44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%8E%92%E9%AA%A8%E5%B1%B1%E8%8D%AF%E5%8C%85%E8%8F%9C%E6%B1%A4&amp;cat=1001</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45811</v>
+      </c>
+      <c r="F45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%A6%92%E5%A4%B4&amp;cat=1001</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45811</v>
+      </c>
+      <c r="F46" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
